--- a/admin/user/tmp/data.xlsx
+++ b/admin/user/tmp/data.xlsx
@@ -1,30 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4495DEBA-C3FB-41DA-9051-E4F7FD614120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E948FFE-9E54-4BE5-8FCF-F866360A2DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{12F879B9-176A-4D6E-A7FA-35CB9CACDEBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>NIK/NIM</t>
   </si>
   <si>
+    <t>Nama</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
@@ -34,9 +51,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
     <t>Risang Prakosa</t>
   </si>
   <si>
@@ -50,17 +64,30 @@
   </si>
   <si>
     <t>gp12</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -105,10 +132,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,30 +454,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAED41-AEE7-445A-B83E-C2FE3149CD05}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375"/>
-    <col min="4" max="4" width="15.42578125"/>
-    <col min="5" max="5" width="19.7109375"/>
-    <col min="6" max="6" width="44.42578125"/>
-    <col min="7" max="1026" width="11.5703125"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -457,48 +486,52 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2017014001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>2017014002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="3">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/admin/user/tmp/data.xlsx
+++ b/admin/user/tmp/data.xlsx
@@ -8,49 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E948FFE-9E54-4BE5-8FCF-F866360A2DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF83696-6DDF-4B91-8DCA-D74D3EC286DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{12F879B9-176A-4D6E-A7FA-35CB9CACDEBA}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>NIK/NIM</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>Nama</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>Risang Prakosa</t>
   </si>
   <si>
@@ -63,31 +49,18 @@
     <t>Gilang Prakoso</t>
   </si>
   <si>
-    <t>gp12</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>qwertyu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -132,14 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,28 +423,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AAED41-AEE7-445A-B83E-C2FE3149CD05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375"/>
+    <col min="4" max="4" width="15.42578125"/>
+    <col min="5" max="5" width="19.7109375"/>
+    <col min="6" max="6" width="44.42578125"/>
+    <col min="7" max="1026" width="11.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -486,52 +457,48 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
         <v>2017014001</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
         <v>2017014002</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3">
         <v>123</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/admin/user/tmp/data.xlsx
+++ b/admin/user/tmp/data.xlsx
@@ -8,23 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF83696-6DDF-4B91-8DCA-D74D3EC286DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3648E997-A9C0-48E9-B59C-08722B91626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7875" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3360" windowWidth="15375" windowHeight="7875" xr2:uid="{FEDFF363-68DB-47BD-9AFE-CF44CA5F2144}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>NIK/NIM</t>
   </si>
   <si>
+    <t>Nama</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
@@ -34,22 +51,19 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Risang Prakosa</t>
-  </si>
-  <si>
-    <t>risang</t>
-  </si>
-  <si>
-    <t>Mahasiswa</t>
-  </si>
-  <si>
-    <t>Gilang Prakoso</t>
-  </si>
-  <si>
-    <t>qwertyu</t>
+    <t>Hary Prihadi</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>Achmad Fauzi</t>
+  </si>
+  <si>
+    <t>oji</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -58,9 +72,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -423,45 +439,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87C4267-5FD3-4D87-9EFE-7AC7200159F5}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375"/>
-    <col min="4" max="4" width="15.42578125"/>
-    <col min="5" max="5" width="19.7109375"/>
-    <col min="6" max="6" width="44.42578125"/>
-    <col min="7" max="1026" width="11.5703125"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2017014001</v>
+        <v>20170140010</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -469,36 +482,31 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2">
+        <v>123</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20170140009</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2017014002</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/admin/user/tmp/data.xlsx
+++ b/admin/user/tmp/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3648E997-A9C0-48E9-B59C-08722B91626D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8A7FC5-16F5-4E5C-B1FA-778282D20970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3360" windowWidth="15375" windowHeight="7875" xr2:uid="{FEDFF363-68DB-47BD-9AFE-CF44CA5F2144}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C88538D9-F590-4B9F-970A-BC6A231B4E64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>NIK/NIM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Nama</t>
   </si>
@@ -51,25 +48,91 @@
     <t>Role</t>
   </si>
   <si>
-    <t>Hary Prihadi</t>
-  </si>
-  <si>
-    <t>hari</t>
-  </si>
-  <si>
-    <t>Achmad Fauzi</t>
-  </si>
-  <si>
-    <t>oji</t>
-  </si>
-  <si>
-    <t>Admin</t>
+    <t>aprilia</t>
+  </si>
+  <si>
+    <t>asroni</t>
+  </si>
+  <si>
+    <t>Slamet Riyadi, S.T., M.Sc., Ph.D.</t>
+  </si>
+  <si>
+    <t>Ir. Haris Setyawan, S.T., M.Eng.</t>
+  </si>
+  <si>
+    <t>Dr. Ir. Dwijoko Purbohadi, M.T.</t>
+  </si>
+  <si>
+    <t>Eko Prasetyo,  Ir. M.Eng.</t>
+  </si>
+  <si>
+    <t>Asroni, S.T.,  M.Eng.</t>
+  </si>
+  <si>
+    <t>Aprilia Kurnianti, ST. M. Eng.</t>
+  </si>
+  <si>
+    <t>Reza Giga Isnanda, S.T., M.Sc.</t>
+  </si>
+  <si>
+    <t>Cahya Damarjati, S.T. M. Eng.</t>
+  </si>
+  <si>
+    <t>Chayadi Oktomy N S, S.T., M.Eng. ITILF</t>
+  </si>
+  <si>
+    <t>Laila Ma'rifatul Azizah, S.Kom., M.I.M.</t>
+  </si>
+  <si>
+    <t>Asep Setiawan S.Th.I., M.Ud.</t>
+  </si>
+  <si>
+    <t>Titis Wisnu Wijaya, S. Pd., M. Pd</t>
+  </si>
+  <si>
+    <t>slamet</t>
+  </si>
+  <si>
+    <t>eko</t>
+  </si>
+  <si>
+    <t>laila</t>
+  </si>
+  <si>
+    <t>asep</t>
+  </si>
+  <si>
+    <t>Dosen</t>
+  </si>
+  <si>
+    <t>dwijoko</t>
+  </si>
+  <si>
+    <t>giga</t>
+  </si>
+  <si>
+    <t>oktomy</t>
+  </si>
+  <si>
+    <t>wisnu</t>
+  </si>
+  <si>
+    <t>damarjati</t>
+  </si>
+  <si>
+    <t>haris</t>
+  </si>
+  <si>
+    <t>NIDN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="&quot;0&quot;#"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,11 +184,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,74 +507,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87C4267-5FD3-4D87-9EFE-7AC7200159F5}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A41156-8483-4B12-B6F9-05B05BE39506}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20170140010</v>
+      <c r="A2" s="3">
+        <v>509087801</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20170140009</v>
+      <c r="A3" s="3">
+        <v>511116901</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>502026801</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>522046701</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>526047401</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>518048401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>503068601</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>515038702</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>707108402</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>123</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>509098901</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>516058701</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>506098902</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>